--- a/Data analytics with python/Traineesplot/AmulyaTechwork.xlsx
+++ b/Data analytics with python/Traineesplot/AmulyaTechwork.xlsx
@@ -1232,8 +1232,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H20" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3570,10 +3570,10 @@
         <v>193</v>
       </c>
       <c r="G49" s="6">
+        <v>44481</v>
+      </c>
+      <c r="H49" s="6">
         <v>44482</v>
-      </c>
-      <c r="H49" s="6">
-        <v>44481</v>
       </c>
       <c r="I49" s="10"/>
       <c r="J49" s="10">
